--- a/Assets/End/resource/data_resource.xlsx
+++ b/Assets/End/resource/data_resource.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\FreewheelExciter\Godlibrary\resource\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\FreewheelExciter\Assets\End\resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="133">
   <si>
     <t>data_resource</t>
   </si>
@@ -461,25 +461,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>学生じゃこんな手法取れん(取らない)だろうから個性になるんじゃないかな</t>
-    <rPh sb="0" eb="2">
-      <t>ガクセイ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>シュホウ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>コセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ゲームの状況に合わせてBGMを変化させる</t>
     <rPh sb="4" eb="6">
       <t>ジョウキョウ</t>
@@ -1022,15 +1003,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>window_message</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>window_ui</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>メッセージウィンドウ</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1054,19 +1027,52 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>title</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>上に寄ってます気をつけて</t>
-    <rPh sb="0" eb="1">
-      <t>ウエ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>キ</t>
+    <t>title_white</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>title_bg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>gameover_bg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>直接文字が入っているヤツ</t>
+    <rPh sb="0" eb="2">
+      <t>チョクセツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ハイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※未定</t>
+    <rPh sb="1" eb="3">
+      <t>ミテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>英語フォント(アセットストアから)→quadrangle</t>
+    <rPh sb="0" eb="2">
+      <t>エイゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトルフォントはこれ→https://fontmeme.com/fonts/judas-priest-font/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日本語フォント→http://sawarabi-fonts.osdn.jp/</t>
+    <rPh sb="0" eb="3">
+      <t>ニホンゴ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1567,7 +1573,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1631,7 +1637,7 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
@@ -1641,7 +1647,7 @@
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
@@ -1651,98 +1657,93 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="16.2" x14ac:dyDescent="0.2">
-      <c r="B20" s="14" t="s">
+    <row r="19" spans="1:8" ht="16.2" x14ac:dyDescent="0.2">
+      <c r="B19" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="15"/>
-      <c r="D20" s="16" t="s">
+      <c r="C19" s="15"/>
+      <c r="D19" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="E20" s="15"/>
-      <c r="F20" s="17" t="s">
+      <c r="E19" s="15"/>
+      <c r="F19" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-    </row>
-    <row r="21" spans="1:8" ht="48" x14ac:dyDescent="0.2">
-      <c r="B21" s="7" t="s">
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+    </row>
+    <row r="20" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="B20" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C20" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="D20" s="11" t="s">
         <v>23</v>
       </c>
+      <c r="E20" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G20" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="H20" s="13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="24" x14ac:dyDescent="0.2">
+      <c r="B21" s="8"/>
+      <c r="D21" s="10"/>
       <c r="E21" s="4" t="s">
         <v>21</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="G21" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="H21" s="13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="24" x14ac:dyDescent="0.2">
-      <c r="B22" s="8"/>
+      <c r="H21" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B22" s="9"/>
       <c r="D22" s="10"/>
-      <c r="E22" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F22" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="H22" s="12" t="s">
-        <v>34</v>
-      </c>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B23" s="9"/>
+      <c r="B23" s="6"/>
       <c r="D23" s="10"/>
       <c r="F23" s="12"/>
       <c r="G23" s="12"/>
       <c r="H23" s="12"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" ht="24" x14ac:dyDescent="0.2">
       <c r="B24" s="6"/>
-      <c r="D24" s="10"/>
-      <c r="F24" s="12"/>
+      <c r="C24" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>25</v>
+      </c>
       <c r="G24" s="12"/>
       <c r="H24" s="12"/>
-    </row>
-    <row r="25" spans="1:8" ht="24" x14ac:dyDescent="0.2">
-      <c r="B25" s="6"/>
-      <c r="C25" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F25" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1760,47 +1761,47 @@
   <sheetData>
     <row r="1" spans="1:1" ht="16.2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="16.2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
@@ -1808,72 +1809,72 @@
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1884,7 +1885,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1893,99 +1894,118 @@
     <col min="1" max="1" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>122</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B21" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="B17" s="5" t="s">
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B18" s="3" t="s">
+      <c r="B22" s="3"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="B23" s="3" t="s">
         <v>128</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>129</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1996,193 +2016,198 @@
   <sheetData>
     <row r="1" spans="1:2" ht="16.2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="16.2" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>80</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B15" s="3"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B18" s="3"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B19" s="3"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>93</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>94</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>103</v>
+      </c>
+      <c r="B26" s="5" t="s">
         <v>104</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="16.2" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>111</v>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>112</v>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -2201,42 +2226,42 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/End/resource/data_resource.xlsx
+++ b/Assets/End/resource/data_resource.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\FreewheelExciter\Assets\End\resource\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\FreewheelExciter\Assets\End\Resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="137">
   <si>
     <t>data_resource</t>
   </si>
@@ -1073,6 +1073,26 @@
     <t>日本語フォント→http://sawarabi-fonts.osdn.jp/</t>
     <rPh sb="0" eb="3">
       <t>ニホンゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://roughsketch.en-grey.com/</t>
+  </si>
+  <si>
+    <t>https://soundeffect-lab.info/</t>
+  </si>
+  <si>
+    <t>効果音ラボ</t>
+    <rPh sb="0" eb="3">
+      <t>コウカオン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>顔グラ</t>
+    <rPh sb="0" eb="1">
+      <t>カオ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1753,7 +1773,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A27"/>
+  <dimension ref="A1:A30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1877,6 +1897,16 @@
         <v>58</v>
       </c>
     </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>134</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1885,7 +1915,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1994,6 +2024,16 @@
       </c>
       <c r="B23" s="3" t="s">
         <v>128</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/End/resource/data_resource.xlsx
+++ b/Assets/End/resource/data_resource.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="148">
   <si>
     <t>data_resource</t>
   </si>
@@ -1093,6 +1093,68 @@
     <t>顔グラ</t>
     <rPh sb="0" eb="1">
       <t>カオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://sawarabi-fonts.osdn.jp/</t>
+  </si>
+  <si>
+    <t>さわらびフォント</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://fontmeme.com/fonts/judas-priest-font/</t>
+  </si>
+  <si>
+    <t>judas priestフォント</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>game-icons</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>三日月アルペジオ</t>
+    <rPh sb="0" eb="3">
+      <t>ミカヅキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>効果音ラボ</t>
+    <rPh sb="0" eb="3">
+      <t>コウカオン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://www.vita-chi.net/sozai1.htm</t>
+  </si>
+  <si>
+    <t>びたちー素材館</t>
+    <rPh sb="4" eb="6">
+      <t>ソザイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>書け</t>
+    <rPh sb="0" eb="1">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>書かなくても良い</t>
+    <rPh sb="0" eb="1">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ヨ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1539,55 +1601,117 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="23.4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="23.4" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="16.2" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>145</v>
+      </c>
+      <c r="G12" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>140</v>
+      </c>
+      <c r="G15" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>138</v>
+      </c>
+      <c r="G18" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1917,7 +2041,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>

--- a/Assets/End/resource/data_resource.xlsx
+++ b/Assets/End/resource/data_resource.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="150">
   <si>
     <t>data_resource</t>
   </si>
@@ -1157,6 +1157,12 @@
       <t>ヨ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://may.force.mepage.jp/</t>
+  </si>
+  <si>
+    <t>誰そ彼亭</t>
   </si>
 </sst>
 </file>
@@ -1601,7 +1607,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1706,6 +1712,16 @@
       </c>
       <c r="G19" s="3" t="s">
         <v>134</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G21" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G22" s="3" t="s">
+        <v>148</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/End/resource/data_resource.xlsx
+++ b/Assets/End/resource/data_resource.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="145">
   <si>
     <t>data_resource</t>
   </si>
@@ -950,10 +950,6 @@
     <t>http://game-icons.net/</t>
   </si>
   <si>
-    <t>ここからとってきてる</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>skill</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1027,10 +1023,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>title_white</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>title_bg</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1059,28 +1051,35 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>英語フォント(アセットストアから)→quadrangle</t>
-    <rPh sb="0" eb="2">
-      <t>エイゴ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>タイトルフォントはこれ→https://fontmeme.com/fonts/judas-priest-font/</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>日本語フォント→http://sawarabi-fonts.osdn.jp/</t>
+    <t>http://roughsketch.en-grey.com/</t>
+  </si>
+  <si>
+    <t>https://soundeffect-lab.info/</t>
+  </si>
+  <si>
+    <t>http://sawarabi-fonts.osdn.jp/</t>
+  </si>
+  <si>
+    <t>さわらびフォント</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://fontmeme.com/fonts/judas-priest-font/</t>
+  </si>
+  <si>
+    <t>judas priestフォント</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>game-icons</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>三日月アルペジオ</t>
     <rPh sb="0" eb="3">
-      <t>ニホンゴ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>http://roughsketch.en-grey.com/</t>
-  </si>
-  <si>
-    <t>https://soundeffect-lab.info/</t>
+      <t>ミカヅキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>効果音ラボ</t>
@@ -1090,45 +1089,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>顔グラ</t>
-    <rPh sb="0" eb="1">
-      <t>カオ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>http://sawarabi-fonts.osdn.jp/</t>
-  </si>
-  <si>
-    <t>さわらびフォント</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>https://fontmeme.com/fonts/judas-priest-font/</t>
-  </si>
-  <si>
-    <t>judas priestフォント</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>game-icons</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>三日月アルペジオ</t>
-    <rPh sb="0" eb="3">
-      <t>ミカヅキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>効果音ラボ</t>
-    <rPh sb="0" eb="3">
-      <t>コウカオン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>http://www.vita-chi.net/sozai1.htm</t>
   </si>
   <si>
@@ -1163,6 +1123,13 @@
   </si>
   <si>
     <t>誰そ彼亭</t>
+  </si>
+  <si>
+    <t>http://sorejanai.blog.shinobi.jp/</t>
+  </si>
+  <si>
+    <t>そういうんじゃないから</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1607,7 +1574,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1655,7 +1622,7 @@
     </row>
     <row r="11" spans="1:7" ht="16.2" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="B11" s="15"/>
       <c r="C11" s="15"/>
@@ -1663,20 +1630,20 @@
       <c r="E11" s="15"/>
       <c r="F11" s="15"/>
       <c r="G11" s="15" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="G12" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>110</v>
@@ -1684,44 +1651,54 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G15" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="G18" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="G21" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="G22" s="3" t="s">
-        <v>148</v>
+        <v>141</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G24" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G25" s="3" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -1913,7 +1890,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A30"/>
+  <dimension ref="A1:A27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2037,16 +2014,6 @@
         <v>58</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>134</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2055,11 +2022,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2113,7 +2078,7 @@
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
@@ -2121,61 +2086,40 @@
         <v>68</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>125</v>
-      </c>
-    </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>131</v>
-      </c>
+      <c r="A16" s="3"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
-        <v>130</v>
-      </c>
+      <c r="A17" s="3"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
-        <v>132</v>
-      </c>
+      <c r="A18" s="3"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>121</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>122</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B21" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B22" s="3"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -2187,7 +2131,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2374,22 +2318,12 @@
     </row>
     <row r="28" spans="1:2" ht="16.2" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -2408,42 +2342,42 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/End/resource/data_resource.xlsx
+++ b/Assets/End/resource/data_resource.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="147">
   <si>
     <t>data_resource</t>
   </si>
@@ -1130,6 +1130,12 @@
   <si>
     <t>そういうんじゃないから</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://blog.livedoor.jp/igsrkt/</t>
+  </si>
+  <si>
+    <t>ゐ薬きょうたのブログ</t>
   </si>
 </sst>
 </file>
@@ -1574,7 +1580,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1699,6 +1705,16 @@
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="G25" s="3" t="s">
         <v>143</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G27" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G28" s="3" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>
